--- a/input_data/subreddit-NBAOdds.xlsx
+++ b/input_data/subreddit-NBAOdds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>Text</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -491,9 +486,6 @@
           <t>i'm going to make this short and sweet, follow the rules + contribute to the community = me do sucky sucky &lt;number&gt; minute</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1460248486</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -521,9 +513,6 @@
           <t>shut the fuck up make an exception for me in the try not to be a dick rule too</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1460248866</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -551,9 +540,6 @@
           <t>hi</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1460250923</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -581,9 +567,6 @@
           <t>decorate this sub or riot</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1460256882</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -611,9 +594,6 @@
           <t>no only me fucer bit</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1460257683</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -641,9 +621,6 @@
           <t>i am bb</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1460257950</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -671,9 +648,6 @@
           <t>hi</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>1460251957</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -701,9 +675,6 @@
           <t>hi</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>1460252137</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -731,9 +702,6 @@
           <t>hi</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>1460255930</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -761,9 +729,6 @@
           <t>hoi</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>1460256897</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -791,9 +756,6 @@
           <t>bye you fucking nigerian jew fucing fagote noob idiot dumb stupid fuci</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>1460257665</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -817,9 +779,6 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>1460252062</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -847,9 +806,6 @@
           <t>not very nice</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>1460256844</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -877,9 +833,6 @@
           <t>atleast im not fucking brain dead like you get pranked</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>1460257296</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -907,9 +860,6 @@
           <t>bane him broe</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>1460257367</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -937,9 +887,6 @@
           <t>i have not the *bane*</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>1460257403</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -967,9 +914,6 @@
           <t>plz</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>1460257433</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -997,9 +941,6 @@
           <t>how does do the *banes?*</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>1460257454</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1027,9 +968,6 @@
           <t>i can be a dick u fucing cunt nigger bitch fagote jew fucing donkey looking potato</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>1460257467</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1057,9 +995,6 @@
           <t>by the hace</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>1460257477</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1087,9 +1022,6 @@
           <t>*o*o*oooo*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*oh</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>1460257555</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1117,9 +1049,6 @@
           <t>again, you're the only person that says that.</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>1460312953</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1147,9 +1076,6 @@
           <t>smd lmao</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>1460253297</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1177,9 +1103,6 @@
           <t>loooooooooool</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>1460256908</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1207,9 +1130,6 @@
           <t>im allowed to be a dick so fuck you suck a donkeys cock you fucking tophat hair line nigger scum bage</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>1460257416</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1237,9 +1157,6 @@
           <t>looks like a shit of a sub, so decorate it man.</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>1460256934</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1267,9 +1184,6 @@
           <t>suc bic dic</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>1460257250</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1297,9 +1211,6 @@
           <t>:( why so dick?</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>1460257334</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1327,9 +1238,6 @@
           <t>dic</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>1460257355</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1357,9 +1265,6 @@
           <t>but why</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>1460257372</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1387,9 +1292,6 @@
           <t>cahse i said so and i am your rightful leader bow down fucet</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>1460257720</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1417,9 +1319,6 @@
           <t>i bow down to no one</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>1460257774</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1447,9 +1346,6 @@
           <t>except me</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>1460288370</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1477,9 +1373,6 @@
           <t>but not active</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>1460257443</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1507,9 +1400,6 @@
           <t>it isn't very cool to begin with. we need fucking memes everywhere for the decoration. meme flairs, meme background, memes or riot.</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>1460257510</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1537,9 +1427,6 @@
           <t>lol ur social life rosted!!!! no plz was just pranaka</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>1460257512</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1567,9 +1454,6 @@
           <t>i am the meme</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>1460257528</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1597,9 +1481,6 @@
           <t>tru tru</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>1460257606</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1627,9 +1508,6 @@
           <t>is it like, for talking about the &lt;number&gt; guns?</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>1460258410</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1657,9 +1535,6 @@
           <t>yeah, it is exactly</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>1460260339</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1687,9 +1562,6 @@
           <t>[my literal reaction when i saw this reddit exists](&lt;url&gt;)</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>1460314903</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1717,9 +1589,6 @@
           <t>[deleted]</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>1460263565</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1747,9 +1616,6 @@
           <t>we need fucking decorations fucking ***now***</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>1460266201</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1777,9 +1643,6 @@
           <t>before you get all worked up, know it took &lt;number&gt;+ hours to get the piece of garbage to work properly. no, this isn't the final product. aleks and i have lots to work on. until then, suggest fixes or things to be added. (eg. flairs, roles, etc)</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>1460268613</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1807,9 +1670,6 @@
           <t>where are the memes and where is my name</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>1460270629</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1837,9 +1697,6 @@
           <t>banner coming soon- -flairs -white name fixes -color scheme changes -making the subreddit more active</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>1460313992</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1867,9 +1724,6 @@
           <t>&gt; "*making the subreddit more active*" what are you going to do, ban people who aren't active?</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>1460420786</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1897,9 +1751,6 @@
           <t>no, remind people</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>1460421465</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1927,9 +1778,6 @@
           <t>just a prank bro</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>1460422480</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1957,9 +1805,6 @@
           <t>group is dead</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>1467069903</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1987,9 +1832,6 @@
           <t>you stole /r/eternityclub's theme prepare for lawsuit</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>1461435993</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2017,9 +1859,6 @@
           <t>were switching themes</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>1461519488</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2047,9 +1886,6 @@
           <t>nice nice nice</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>1461702499</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2077,9 +1913,6 @@
           <t>woo i can shitpost because this is my own subreddit</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>1486944361</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2107,9 +1940,6 @@
           <t>/u/redbirdyo /u/soyeahnope /u/thanos_stomps /u/jrsplays</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>1486944559</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2137,9 +1967,6 @@
           <t>well hi! i see you're back from your break! you also, as far as i can tell, stuck to the bet. nice!</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>1487116644</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2167,9 +1994,6 @@
           <t>im glad someone finally responded..</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>1487119327</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2197,9 +2021,6 @@
           <t>nato is getting reforms pls re apply or leeacereeeee</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>1468880642</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2227,9 +2048,6 @@
           <t>[deleted]</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>1469663230</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2253,9 +2071,6 @@
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
-        <v>1462269823</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2283,9 +2098,6 @@
           <t>[removed]</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>1462407242</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2313,9 +2125,6 @@
           <t>comment</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>1462407576</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2343,9 +2152,6 @@
           <t>die</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>1462473772</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2369,9 +2175,6 @@
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>1462717548</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2399,9 +2202,6 @@
           <t>fucking leave, no one cares about your link karma farming.</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>1462926563</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2429,9 +2229,6 @@
           <t>are u mad at the content? or just a =n asshole? maybe both?</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>1462930410</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2459,9 +2256,6 @@
           <t>just leave, no one needs you here and your singular downvoting.</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>1462930602</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2489,9 +2283,6 @@
           <t>now i feel i should stick around just for you:)</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>1462930698</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2519,9 +2310,6 @@
           <t>seriously, just leave. you have absolutely no relevance with nato and you would be banned because of your trash.</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>1462930762</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2549,9 +2337,6 @@
           <t>the nato and us mission in afghanistan has "no relevance" ...? riiiiiight.</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>1462978144</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2579,9 +2364,6 @@
           <t>... are you fucking serious? this subreddit is for a game clan, you fucking autist.</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>1462978733</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2609,9 +2391,6 @@
           <t>youre the one on reddit for a "game clan" and im mentally unsound? hahahahah</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>1462979213</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2639,9 +2418,6 @@
           <t>please, just leave. no one asked for you here and your trashy "hey look nato got rekt by afganistan im gonna advertise it on &lt;number&gt; different subreddit's and get upvoted!!!!!&lt;number&gt;!!" i can literally get you banned right now.</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>1462979796</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2669,9 +2445,6 @@
           <t>wow you really are a dick. can't you just accept that this was a misunderstanding? asshole</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>1463536810</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2699,9 +2472,6 @@
           <t>&gt;this was a misunderstanding? yes reposting &lt;number&gt; times is a misunderstanding.</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>1463773962</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2728,9 +2498,6 @@
         <is>
           <t>now! i hate this new subreddit we need to bring back the funny guys</t>
         </is>
-      </c>
-      <c r="F77" t="n">
-        <v>1481140129</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/subreddit-NBAOdds.xlsx
+++ b/input_data/subreddit-NBAOdds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Conversation ID</t>
+          <t>conv_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Utterance ID</t>
+          <t>res_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Speaker ID</t>
+          <t>question_text</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Reply to</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Text</t>
+          <t>answer_text</t>
         </is>
       </c>
     </row>
@@ -466,24 +461,17 @@
           <t>4e3tez</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4e3tez</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>I'm going to make this short and sweet, follow the rules + contribute to the community = me do sucky sucky 10 minute</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>i'm going to make this short and sweet, follow the rules + contribute to the community = me do sucky sucky &lt;number&gt; minute</t>
         </is>
       </c>
     </row>
@@ -493,24 +481,17 @@
           <t>4e3tez</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>d1wr70f</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>goosemanduck</t>
+          <t>shut the fuck up make an exception for me in the try not to be a dick rule too</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4e3tez</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>shut the fuck up make an exception for me in the try not to be a dick rule too</t>
+          <t>I'm going to make this short and sweet, follow the rules + contribute to the community = me do sucky sucky 10 minute</t>
         </is>
       </c>
     </row>
@@ -520,24 +501,17 @@
           <t>4e3tez</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>d1wsbdt</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>johanh2o</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4e3tez</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>hi</t>
+          <t>I'm going to make this short and sweet, follow the rules + contribute to the community = me do sucky sucky 10 minute</t>
         </is>
       </c>
     </row>
@@ -547,24 +521,17 @@
           <t>4e3tez</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>d1wvtfe</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>decorate this sub or riot</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4e3tez</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>decorate this sub or riot</t>
+          <t>I'm going to make this short and sweet, follow the rules + contribute to the community = me do sucky sucky 10 minute</t>
         </is>
       </c>
     </row>
@@ -574,24 +541,17 @@
           <t>4e3tez</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>d1ww9a3</t>
-        </is>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>no only me fucer bit</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>d1wr70f</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>no only me fucer bit</t>
+          <t>shut the fuck up make an exception for me in the try not to be a dick rule too</t>
         </is>
       </c>
     </row>
@@ -601,24 +561,17 @@
           <t>4e3tez</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>d1wwebv</t>
-        </is>
+      <c r="B7" t="n">
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>i am bb</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>d1wvtfe</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>i am bb</t>
+          <t>decorate this sub or riot</t>
         </is>
       </c>
     </row>
@@ -628,24 +581,17 @@
           <t>4e40go</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4e40go</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>concents</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>hi</t>
         </is>
       </c>
     </row>
@@ -655,22 +601,15 @@
           <t>4e40go</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>d1wt1pw</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Destroion</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>4e40go</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
@@ -682,22 +621,15 @@
           <t>4e40go</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>d1wv9yw</t>
-        </is>
+      <c r="B10" t="n">
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>4e40go</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
@@ -709,24 +641,17 @@
           <t>4e40go</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>d1wvtp8</t>
-        </is>
+      <c r="B11" t="n">
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>hoi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4e40go</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>hoi</t>
+          <t>hi</t>
         </is>
       </c>
     </row>
@@ -736,24 +661,17 @@
           <t>4e40go</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>d1ww8xk</t>
-        </is>
+      <c r="B12" t="n">
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>bye you fucking nigerian jew fucing fagote noob idiot dumb stupid fuci</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4e40go</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>bye you fucking nigerian jew fucing fagote noob idiot dumb stupid fuci</t>
+          <t>hi</t>
         </is>
       </c>
     </row>
@@ -763,22 +681,15 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4e40o2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>nuho24</t>
-        </is>
-      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -786,26 +697,15 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>d1wvsnw</t>
-        </is>
+      <c r="B14" t="n">
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4e40o2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>not very nice</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -813,26 +713,15 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>d1ww1oa</t>
-        </is>
+      <c r="B15" t="n">
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4e40o2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>atleast im not fucking brain dead like you get pranked</t>
-        </is>
-      </c>
+          <t>atleast im not fucking brain dead like youget PRANKED</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -840,24 +729,17 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>d1ww35a</t>
-        </is>
+      <c r="B16" t="n">
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>bane him broe</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>d1wvsnw</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>bane him broe</t>
+          <t>not very nice</t>
         </is>
       </c>
     </row>
@@ -867,24 +749,17 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>d1ww3vj</t>
-        </is>
+      <c r="B17" t="n">
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>i have not the *bane*</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>d1ww35a</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>i have not the *bane*</t>
+          <t>bane him broe</t>
         </is>
       </c>
     </row>
@@ -894,24 +769,17 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>d1ww4hl</t>
-        </is>
+      <c r="B18" t="n">
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>plz</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>d1ww3vj</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>plz</t>
+          <t>i have not the *bane*</t>
         </is>
       </c>
     </row>
@@ -921,24 +789,17 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>d1ww4wi</t>
-        </is>
+      <c r="B19" t="n">
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>how does do the *banes?*</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>d1ww4hl</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>how does do the *banes?*</t>
+          <t>plz</t>
         </is>
       </c>
     </row>
@@ -948,26 +809,15 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>d1ww55j</t>
-        </is>
+      <c r="B20" t="n">
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4e40o2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>i can be a dick u fucing cunt nigger bitch fagote jew fucing donkey looking potato</t>
-        </is>
-      </c>
+          <t>i can be a dicK U FUCING CUNT NIGGER BITCH FAGOTE JEW FUCING DONKEY LOOKING POTATO</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -975,24 +825,17 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>d1ww5c8</t>
-        </is>
+      <c r="B21" t="n">
+        <v>9</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>by the hace</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>d1ww4wi</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>by the hace</t>
+          <t>how does do the *banes?*</t>
         </is>
       </c>
     </row>
@@ -1002,24 +845,17 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>d1ww6s9</t>
-        </is>
+      <c r="B22" t="n">
+        <v>10</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>*o*o*oooo*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*oh</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>d1ww5c8</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>*o*o*oooo*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*o*oh</t>
+          <t>by the hace</t>
         </is>
       </c>
     </row>
@@ -1029,24 +865,17 @@
           <t>4e40o2</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>d1xil92</t>
-        </is>
+      <c r="B23" t="n">
+        <v>11</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>nuho24</t>
+          <t>again, you're the only person that says that.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>d1ww1oa</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>again, you're the only person that says that.</t>
+          <t>atleast im not fucking brain dead like youget PRANKED</t>
         </is>
       </c>
     </row>
@@ -1056,24 +885,17 @@
           <t>4e4399</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>4e4399</t>
-        </is>
+      <c r="B24" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>xRelentlessx23</t>
+          <t>smd lmao</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>smd lmao</t>
         </is>
       </c>
     </row>
@@ -1083,24 +905,17 @@
           <t>4e4399</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>d1wvtxs</t>
-        </is>
+      <c r="B25" t="n">
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>loooooooooool</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4e4399</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>loooooooooool</t>
+          <t>smd lmao</t>
         </is>
       </c>
     </row>
@@ -1110,24 +925,17 @@
           <t>4e4399</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>d1ww44q</t>
-        </is>
+      <c r="B26" t="n">
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>im allowed to be a dick so fuck you suck a donkeys cock you fucking tophat hair line nigger scum bage</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4e4399</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>im allowed to be a dick so fuck you suck a donkeys cock you fucking tophat hair line nigger scum bage</t>
+          <t>smd lmao</t>
         </is>
       </c>
     </row>
@@ -1137,24 +945,17 @@
           <t>4e4anp</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>4e4anp</t>
-        </is>
+      <c r="B27" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>looks like a shit of a sub, so decorate it man.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>looks like a shit of a sub, so decorate it man.</t>
         </is>
       </c>
     </row>
@@ -1164,24 +965,17 @@
           <t>4e4anp</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>d1ww0rq</t>
-        </is>
+      <c r="B28" t="n">
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>suc bic dic</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4e4anp</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>suc bic dic</t>
+          <t>looks like a shit of a sub, so decorate it man.</t>
         </is>
       </c>
     </row>
@@ -1191,24 +985,17 @@
           <t>4e4anp</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>d1ww2h1</t>
-        </is>
+      <c r="B29" t="n">
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>:( why so dick?</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>d1ww0rq</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>:( why so dick?</t>
+          <t>suc bic dic</t>
         </is>
       </c>
     </row>
@@ -1218,24 +1005,17 @@
           <t>4e4anp</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>d1ww2wk</t>
-        </is>
+      <c r="B30" t="n">
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>DIC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>d1ww2h1</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>dic</t>
+          <t>:( why so dick?</t>
         </is>
       </c>
     </row>
@@ -1245,24 +1025,17 @@
           <t>4e4anp</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>d1ww38y</t>
-        </is>
+      <c r="B31" t="n">
+        <v>5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>but why</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>d1ww2wk</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>but why</t>
+          <t>DIC</t>
         </is>
       </c>
     </row>
@@ -1272,24 +1045,17 @@
           <t>4e4anp</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>d1ww9z0</t>
-        </is>
+      <c r="B32" t="n">
+        <v>6</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>cahse i said so AND I AM YOUR RIGHTFUL LEADER BOW DOWN FUCET</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>d1ww38y</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>cahse i said so and i am your rightful leader bow down fucet</t>
+          <t>but why</t>
         </is>
       </c>
     </row>
@@ -1299,24 +1065,17 @@
           <t>4e4anp</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>d1wwaz6</t>
-        </is>
+      <c r="B33" t="n">
+        <v>7</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>I BOW DOWN TO NO ONE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>d1ww9z0</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>i bow down to no one</t>
+          <t>cahse i said so AND I AM YOUR RIGHTFUL LEADER BOW DOWN FUCET</t>
         </is>
       </c>
     </row>
@@ -1326,24 +1085,17 @@
           <t>4e4anp</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>d1x6d34</t>
-        </is>
+      <c r="B34" t="n">
+        <v>8</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>except me</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>d1wwaz6</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>except me</t>
+          <t>I BOW DOWN TO NO ONE</t>
         </is>
       </c>
     </row>
@@ -1353,24 +1105,17 @@
           <t>4e4bn9</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>4e4bn9</t>
-        </is>
+      <c r="B35" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>notInstantKarma</t>
+          <t>But not active</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>but not active</t>
         </is>
       </c>
     </row>
@@ -1380,24 +1125,17 @@
           <t>4e4bn9</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>d1ww5yx</t>
-        </is>
+      <c r="B36" t="n">
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>It isn't very cool to begin with. We need fucking memes everywhere for the decoration. Meme flairs, meme background, memes or riot.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4e4bn9</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>it isn't very cool to begin with. we need fucking memes everywhere for the decoration. meme flairs, meme background, memes or riot.</t>
+          <t>But not active</t>
         </is>
       </c>
     </row>
@@ -1407,24 +1145,17 @@
           <t>4e4bn9</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>d1ww60c</t>
-        </is>
+      <c r="B37" t="n">
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>lol ur social life ROSTED!!!!no plz was just pranaka</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4e4bn9</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>lol ur social life rosted!!!! no plz was just pranaka</t>
+          <t>But not active</t>
         </is>
       </c>
     </row>
@@ -1434,24 +1165,17 @@
           <t>4e4bn9</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>d1ww6ao</t>
-        </is>
+      <c r="B38" t="n">
+        <v>4</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>opticTacticalPiggeh1</t>
+          <t>i am the meme</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>d1ww5yx</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>i am the meme</t>
+          <t>It isn't very cool to begin with. We need fucking memes everywhere for the decoration. Meme flairs, meme background, memes or riot.</t>
         </is>
       </c>
     </row>
@@ -1461,24 +1185,17 @@
           <t>4e4bn9</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>d1ww7rm</t>
-        </is>
+      <c r="B39" t="n">
+        <v>5</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>tru tru</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>d1ww6ao</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>tru tru</t>
+          <t>i am the meme</t>
         </is>
       </c>
     </row>
@@ -1488,24 +1205,17 @@
           <t>4e4dec</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>4e4dec</t>
-        </is>
+      <c r="B40" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TheMemeKid</t>
+          <t>Is it like, for talking about the 5.56 guns?</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>is it like, for talking about the &lt;number&gt; guns?</t>
         </is>
       </c>
     </row>
@@ -1515,24 +1225,17 @@
           <t>4e4dec</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>d1wxlac</t>
-        </is>
+      <c r="B41" t="n">
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>yeah, it is exactly</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4e4dec</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>yeah, it is exactly</t>
+          <t>Is it like, for talking about the 5.56 guns?</t>
         </is>
       </c>
     </row>
@@ -1542,24 +1245,17 @@
           <t>4e4dec</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>d1xju6a</t>
-        </is>
+      <c r="B42" t="n">
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GodlySinister</t>
+          <t>[My literal reaction when I saw this reddit exists](http://m.imgur.com/gallery/t1hj2s0)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4e4dec</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>[my literal reaction when i saw this reddit exists](&lt;url&gt;)</t>
+          <t>Is it like, for talking about the 5.56 guns?</t>
         </is>
       </c>
     </row>
@@ -1569,10 +1265,8 @@
           <t>4e4mho</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>4e4mho</t>
-        </is>
+      <c r="B43" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1582,11 +1276,6 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>[deleted]</t>
         </is>
       </c>
     </row>
@@ -1596,24 +1285,17 @@
           <t>4e4mho</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>d1x0aoz</t>
-        </is>
+      <c r="B44" t="n">
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>we need fucking DECORATIONS FUCKING ***NOW***</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4e4mho</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>we need fucking decorations fucking ***now***</t>
+          <t>[deleted]</t>
         </is>
       </c>
     </row>
@@ -1623,24 +1305,17 @@
           <t>4e4uc2</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>4e4uc2</t>
-        </is>
+      <c r="B45" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>Before you get all worked up, know it took 3+ hours to get the piece of garbage to work properly. No, this isn't the final product. Aleks and I have lots to work on. Until then, suggest fixes or things to be added. (EG. Flairs, roles, etc)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>before you get all worked up, know it took &lt;number&gt;+ hours to get the piece of garbage to work properly. no, this isn't the final product. aleks and i have lots to work on. until then, suggest fixes or things to be added. (eg. flairs, roles, etc)</t>
         </is>
       </c>
     </row>
@@ -1650,24 +1325,17 @@
           <t>4e4uc2</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>d1x1vjy</t>
-        </is>
+      <c r="B46" t="n">
+        <v>2</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>where are the memes and where is my name</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4e4uc2</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>where are the memes and where is my name</t>
+          <t>Before you get all worked up, know it took 3+ hours to get the piece of garbage to work properly. No, this isn't the final product. Aleks and I have lots to work on. Until then, suggest fixes or things to be added. (EG. Flairs, roles, etc)</t>
         </is>
       </c>
     </row>
@@ -1677,24 +1345,17 @@
           <t>4e700j</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>4e700j</t>
-        </is>
+      <c r="B47" t="n">
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>Banner coming soon--Flairs-White name fixes-Color scheme changes-Making the subreddit more active</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>banner coming soon- -flairs -white name fixes -color scheme changes -making the subreddit more active</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1365,17 @@
           <t>4e700j</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>d1z6j9s</t>
-        </is>
+      <c r="B48" t="n">
+        <v>2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>&amp;gt; "*making the subreddit more active*"What are you going to do, ban people who aren't active?</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4e700j</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>&gt; "*making the subreddit more active*" what are you going to do, ban people who aren't active?</t>
+          <t>Banner coming soon--Flairs-White name fixes-Color scheme changes-Making the subreddit more active</t>
         </is>
       </c>
     </row>
@@ -1731,24 +1385,17 @@
           <t>4e700j</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>d1z706u</t>
-        </is>
+      <c r="B49" t="n">
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>no, remind people</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>d1z6j9s</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>no, remind people</t>
+          <t>&amp;gt; "*making the subreddit more active*"What are you going to do, ban people who aren't active?</t>
         </is>
       </c>
     </row>
@@ -1758,24 +1405,17 @@
           <t>4e700j</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>d1z7oni</t>
-        </is>
+      <c r="B50" t="n">
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>just a prank bro</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>d1z706u</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>just a prank bro</t>
+          <t>no, remind people</t>
         </is>
       </c>
     </row>
@@ -1785,24 +1425,17 @@
           <t>4e700j</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>d4qj9nr</t>
-        </is>
+      <c r="B51" t="n">
+        <v>5</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>nuho24</t>
+          <t>group is dead</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4e700j</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>group is dead</t>
+          <t>Banner coming soon--Flairs-White name fixes-Color scheme changes-Making the subreddit more active</t>
         </is>
       </c>
     </row>
@@ -1812,24 +1445,17 @@
           <t>4g4moc</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>4g4moc</t>
-        </is>
+      <c r="B52" t="n">
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>nuho24</t>
+          <t>you stole /r/EternityClub's themeprepare for lawsuit</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>you stole /r/eternityclub's theme prepare for lawsuit</t>
         </is>
       </c>
     </row>
@@ -1839,24 +1465,17 @@
           <t>4g4moc</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>d2fjeg0</t>
-        </is>
+      <c r="B53" t="n">
+        <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>were switching themes</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4g4moc</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>were switching themes</t>
+          <t>you stole /r/EternityClub's themeprepare for lawsuit</t>
         </is>
       </c>
     </row>
@@ -1866,24 +1485,17 @@
           <t>4g4moc</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>d2ieq1p</t>
-        </is>
+      <c r="B54" t="n">
+        <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TheNoobSlayer5674</t>
+          <t>nice nice nice</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4g4moc</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>nice nice nice</t>
+          <t>you stole /r/EternityClub's themeprepare for lawsuit</t>
         </is>
       </c>
     </row>
@@ -1893,24 +1505,17 @@
           <t>5tpiyj</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>5tpiyj</t>
-        </is>
+      <c r="B55" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>WooI can shitpost because this is my own subreddit</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>woo i can shitpost because this is my own subreddit</t>
         </is>
       </c>
     </row>
@@ -1920,24 +1525,17 @@
           <t>5tpiyj</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ddo1icb</t>
-        </is>
+      <c r="B56" t="n">
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>/u/RedBirdYo/u/SoYeahNope/u/Thanos_Stomps/u/Jrsplays</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5tpiyj</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>/u/redbirdyo /u/soyeahnope /u/thanos_stomps /u/jrsplays</t>
+          <t>WooI can shitpost because this is my own subreddit</t>
         </is>
       </c>
     </row>
@@ -1947,24 +1545,17 @@
           <t>5tpiyj</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ddr5uo6</t>
-        </is>
+      <c r="B57" t="n">
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Jrsplays</t>
+          <t>Well hi! I see you're back from your break! You also, as far as I can tell, stuck to the bet. Nice!</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ddo1icb</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>well hi! i see you're back from your break! you also, as far as i can tell, stuck to the bet. nice!</t>
+          <t>/u/RedBirdYo/u/SoYeahNope/u/Thanos_Stomps/u/Jrsplays</t>
         </is>
       </c>
     </row>
@@ -1974,24 +1565,17 @@
           <t>5tpiyj</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ddr7tn5</t>
-        </is>
+      <c r="B58" t="n">
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>Im glad someone finally responded..</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ddr5uo6</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>im glad someone finally responded..</t>
+          <t>Well hi! I see you're back from your break! You also, as far as I can tell, stuck to the bet. Nice!</t>
         </is>
       </c>
     </row>
@@ -2001,24 +1585,17 @@
           <t>4thr1j</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>4thr1j</t>
-        </is>
+      <c r="B59" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>NATO is getting reforms pls re apply or leeacereeeee</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>nato is getting reforms pls re apply or leeacereeeee</t>
         </is>
       </c>
     </row>
@@ -2028,10 +1605,8 @@
           <t>4uxqj1</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>4uxqj1</t>
-        </is>
+      <c r="B60" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2041,11 +1616,6 @@
       <c r="D60" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[deleted]</t>
         </is>
       </c>
     </row>
@@ -2055,22 +1625,15 @@
           <t>4hmkh8</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>4hmkh8</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Alan-Svejk</t>
-        </is>
-      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2078,24 +1641,17 @@
           <t>4hxgmt</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>4hxgmt</t>
-        </is>
+      <c r="B62" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>nuho24</t>
+          <t>[removed]</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>[removed]</t>
         </is>
       </c>
     </row>
@@ -2105,24 +1661,17 @@
           <t>4hxhgi</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>4hxhgi</t>
-        </is>
+      <c r="B63" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SadsWreath</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>comment</t>
         </is>
       </c>
     </row>
@@ -2132,24 +1681,17 @@
           <t>4hxhgi</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>d2u4x5f</t>
-        </is>
+      <c r="B64" t="n">
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>xRelentlessx23</t>
+          <t>die</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4hxhgi</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>die</t>
+          <t>comment</t>
         </is>
       </c>
     </row>
@@ -2159,22 +1701,15 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>4ieq5e</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>codebrownish</t>
-        </is>
-      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2182,26 +1717,15 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>d30om44</t>
-        </is>
+      <c r="B66" t="n">
+        <v>2</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>nuho24</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>4ieq5e</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>fucking leave, no one cares about your link karma farming.</t>
-        </is>
-      </c>
+          <t>Fucking leave, no one cares about your link karma farming.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2209,24 +1733,17 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>d30r3wu</t>
-        </is>
+      <c r="B67" t="n">
+        <v>3</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>codebrownish</t>
+          <t>are u mad at the content? or just a =n asshole? maybe both?</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>d30om44</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>are u mad at the content? or just a =n asshole? maybe both?</t>
+          <t>Fucking leave, no one cares about your link karma farming.</t>
         </is>
       </c>
     </row>
@@ -2236,24 +1753,17 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>d30r8ki</t>
-        </is>
+      <c r="B68" t="n">
+        <v>4</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>nuho24</t>
+          <t>Just leave, no one needs you here and your singular downvoting.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>d30r3wu</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>just leave, no one needs you here and your singular downvoting.</t>
+          <t>are u mad at the content? or just a =n asshole? maybe both?</t>
         </is>
       </c>
     </row>
@@ -2263,24 +1773,17 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>d30raus</t>
-        </is>
+      <c r="B69" t="n">
+        <v>5</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>codebrownish</t>
+          <t>Now i feel i should stick around just for you:)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>d30r8ki</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>now i feel i should stick around just for you:)</t>
+          <t>Just leave, no one needs you here and your singular downvoting.</t>
         </is>
       </c>
     </row>
@@ -2290,24 +1793,17 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>d30rccd</t>
-        </is>
+      <c r="B70" t="n">
+        <v>6</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>nuho24</t>
+          <t>Seriously, just leave. You have absolutely no relevance with NATO and you would be banned because of your trash.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>d30raus</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>seriously, just leave. you have absolutely no relevance with nato and you would be banned because of your trash.</t>
+          <t>Now i feel i should stick around just for you:)</t>
         </is>
       </c>
     </row>
@@ -2317,24 +1813,17 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>d31cb1g</t>
-        </is>
+      <c r="B71" t="n">
+        <v>7</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>codebrownish</t>
+          <t xml:space="preserve">the Nato and US mission in Afghanistan has "no relevance" ...? riiiiiight. </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>d30rccd</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>the nato and us mission in afghanistan has "no relevance" ...? riiiiiight.</t>
+          <t>Seriously, just leave. You have absolutely no relevance with NATO and you would be banned because of your trash.</t>
         </is>
       </c>
     </row>
@@ -2344,24 +1833,17 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>d31cq6j</t>
-        </is>
+      <c r="B72" t="n">
+        <v>8</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>nuho24</t>
+          <t>...Are you fucking serious?This subreddit is for a game clan, you fucking autist.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>d31cb1g</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>... are you fucking serious? this subreddit is for a game clan, you fucking autist.</t>
+          <t xml:space="preserve">the Nato and US mission in Afghanistan has "no relevance" ...? riiiiiight. </t>
         </is>
       </c>
     </row>
@@ -2371,24 +1853,17 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>d31d2op</t>
-        </is>
+      <c r="B73" t="n">
+        <v>9</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>codebrownish</t>
+          <t>youre the one on reddit for a "game clan" and im mentally unsound? hahahahah</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>d31cq6j</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>youre the one on reddit for a "game clan" and im mentally unsound? hahahahah</t>
+          <t>...Are you fucking serious?This subreddit is for a game clan, you fucking autist.</t>
         </is>
       </c>
     </row>
@@ -2398,24 +1873,17 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>d31dilc</t>
-        </is>
+      <c r="B74" t="n">
+        <v>10</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>nuho24</t>
+          <t>Please, just leave. No one asked for you here and your trashy "hey look nato got rekt by afganistan im gonna advertise it on 26 different subreddit's and get upvoted!!!!!11!!"I can literally get you banned right now.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>d31d2op</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>please, just leave. no one asked for you here and your trashy "hey look nato got rekt by afganistan im gonna advertise it on &lt;number&gt; different subreddit's and get upvoted!!!!!&lt;number&gt;!!" i can literally get you banned right now.</t>
+          <t>youre the one on reddit for a "game clan" and im mentally unsound? hahahahah</t>
         </is>
       </c>
     </row>
@@ -2425,24 +1893,17 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>d39ok2q</t>
-        </is>
+      <c r="B75" t="n">
+        <v>11</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>xRelentlessx23</t>
+          <t>wow you really are a dick. can't you just accept that this was a misunderstanding? Asshole</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>d31dilc</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>wow you really are a dick. can't you just accept that this was a misunderstanding? asshole</t>
+          <t>Please, just leave. No one asked for you here and your trashy "hey look nato got rekt by afganistan im gonna advertise it on 26 different subreddit's and get upvoted!!!!!11!!"I can literally get you banned right now.</t>
         </is>
       </c>
     </row>
@@ -2452,24 +1913,17 @@
           <t>4ieq5e</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>d3dby3g</t>
-        </is>
+      <c r="B76" t="n">
+        <v>12</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>nuho24</t>
+          <t>&amp;gt;this was a misunderstanding?yes reposting 27 times is a misunderstanding.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>d39ok2q</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>&gt;this was a misunderstanding? yes reposting &lt;number&gt; times is a misunderstanding.</t>
+          <t>wow you really are a dick. can't you just accept that this was a misunderstanding? Asshole</t>
         </is>
       </c>
     </row>
@@ -2479,24 +1933,17 @@
           <t>5h224g</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>5h224g</t>
-        </is>
+      <c r="B77" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Destroion</t>
+          <t>NOW! I hate this new subreddit we need to bring back the funny guys</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>now! i hate this new subreddit we need to bring back the funny guys</t>
         </is>
       </c>
     </row>
